--- a/data/2025_data/2025Q1.xlsx
+++ b/data/2025_data/2025Q1.xlsx
@@ -18,14 +18,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="pEkk3zAqFmaopDagvfMHT+vblLmRdjKFl+IEktUh9gI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="D3Y8vLGPsrOARAuM+0bjf4BVByKVRSG22fHQr+wirCM="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="263">
   <si>
     <t>date of publication</t>
   </si>
@@ -347,10 +347,10 @@
     <t>Gender Equality in the National Parliaments across the EU and the European Parliament</t>
   </si>
   <si>
-    <t>3</t>
+    <t>1 X user; 1 Bluesky user</t>
   </si>
   <si>
-    <t>1 X user; 1 Bluesky user</t>
+    <t>Grey literature on Education</t>
   </si>
   <si>
     <t>17.01.2025</t>
@@ -380,7 +380,15 @@
     <t>Gender Mainstreaming in Academia Flowing Between Policy and Bureaucracy</t>
   </si>
   <si>
-    <t>https://www.tandfonline.com/doi/full/10.1080/08038740.2024.2446767</t>
+    <r>
+      <rPr>
+        <rFont val="Helvetica"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>https://www.tandfonline.com/doi/full/10.1080/08038740.2024.2446767</t>
+    </r>
   </si>
   <si>
     <t>Tonje Lauritzen</t>
@@ -389,7 +397,7 @@
     <t>University of Inland Norway</t>
   </si>
   <si>
-    <t>NORA - Nordic Journal of Feminist and Gender Research </t>
+    <t>NORA - Nordic Journal of Feminist and Gender Research</t>
   </si>
   <si>
     <t>Single Programming Document 2023-2025</t>
@@ -398,7 +406,16 @@
     <t>Work Programme</t>
   </si>
   <si>
-    <t>2</t>
+    <t>https://www.tandfonline.com/doi/full/10.1080/08038740.2024.2446767</t>
+  </si>
+  <si>
+    <t>EIGE's recommendations for national Gender Equality Plans</t>
+  </si>
+  <si>
+    <t>Good practice</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>19.02.2025</t>
@@ -417,9 +434,6 @@
   </si>
   <si>
     <t>EIGE's institutional role</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>27.02.2025</t>
@@ -506,6 +520,9 @@
     <t>Web section - index</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>6 X users, 3 Bluesky users</t>
   </si>
   <si>
@@ -522,6 +539,9 @@
   </si>
   <si>
     <t>Political Studies Review</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>1 X user</t>
@@ -695,9 +715,6 @@
     <t>Policy brief</t>
   </si>
   <si>
-    <t>Good practice</t>
-  </si>
-  <si>
     <t>Web section, GBV</t>
   </si>
   <si>
@@ -846,7 +863,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -913,10 +930,32 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
       <u/>
       <sz val="12.0"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
     </font>
     <font>
       <u/>
@@ -925,9 +964,10 @@
       <name val="Aptos Narrow"/>
     </font>
     <font>
-      <color theme="1"/>
+      <u/>
+      <sz val="12.0"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -946,7 +986,7 @@
       <name val="Aptos Narrow"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -973,12 +1013,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDB409"/>
+        <bgColor rgb="FFFDB409"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE1E4E7"/>
+        <bgColor rgb="FFE1E4E7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF0B"/>
+        <bgColor rgb="FFFFFF0B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border/>
     <border>
       <left/>
@@ -986,11 +1050,95 @@
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF9A9A9A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF9A9A9A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF9A9A9A"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF9A9A9A"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="65">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1096,20 +1244,65 @@
     <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="2" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="3" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf borderId="5" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="5" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf borderId="7" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="4" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
@@ -1121,18 +1314,18 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="9" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1959,174 +2152,168 @@
       <c r="Z10" s="21"/>
     </row>
     <row r="11" ht="32.25" customHeight="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="35">
         <v>2019.0</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="21" t="s">
+      <c r="K11" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="L11" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="L11" s="21">
+      <c r="P11" s="40">
+        <v>1.4</v>
+      </c>
+      <c r="Q11" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+    </row>
+    <row r="12" ht="32.25" customHeight="1">
+      <c r="A12" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="44">
+        <v>2019.0</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="L12" s="44">
         <v>1.0</v>
       </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="P11" s="12">
-        <f>K11*0.2 + L11*0.4 + M11*0.1 + N11*0.1 + 2*0.2</f>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" s="46">
         <v>1.4</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q12" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-    </row>
-    <row r="12" ht="34.5" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+    </row>
+    <row r="13" ht="34.5" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B13" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D13" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I13" s="3">
         <v>2016.0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="P12" s="12">
-        <f t="shared" ref="P12:P15" si="3">K12*0.2 + L12*0.4 + M12*0.1 + N12*0.1 + O12*0.2</f>
-        <v>0.8</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-    </row>
-    <row r="13" ht="41.25" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="I13" s="3">
-        <v>2022.0</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L13" s="21">
+      <c r="K13" s="48"/>
+      <c r="L13" s="3">
         <v>1.0</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="3">
         <v>3.0</v>
       </c>
-      <c r="N13" s="21">
+      <c r="N13" s="3">
         <v>1.0</v>
       </c>
       <c r="O13" s="3">
         <v>0.0</v>
       </c>
       <c r="P13" s="12">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
+        <f>K13*0.2 + L13*0.4 + M13*0.1 + N13*0.1 + O13*0.2</f>
+        <v>0.8</v>
       </c>
       <c r="Q13" s="3" t="s">
         <v>33</v>
@@ -2141,55 +2328,56 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" ht="31.5" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="35"/>
-      <c r="L14" s="21">
+    <row r="14" ht="41.25" customHeight="1">
+      <c r="A14" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="I14" s="49">
+        <v>2022.0</v>
+      </c>
+      <c r="J14" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="49">
+        <v>2.0</v>
+      </c>
+      <c r="L14" s="49">
         <v>1.0</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="49">
         <v>3.0</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="49">
         <v>1.0</v>
       </c>
-      <c r="O14" s="21">
+      <c r="O14" s="51">
         <v>0.0</v>
       </c>
-      <c r="P14" s="12">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="46">
+        <v>1.2</v>
+      </c>
+      <c r="Q14" s="47" t="s">
         <v>33</v>
       </c>
       <c r="R14" s="3"/>
@@ -2202,58 +2390,57 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" ht="43.5" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2020.0</v>
-      </c>
-      <c r="J15" s="3" t="s">
+    <row r="15" ht="41.25" customHeight="1">
+      <c r="A15" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="44">
         <v>2.0</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="44">
+        <v>7.0</v>
+      </c>
+      <c r="M15" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="N15" s="44">
         <v>1.0</v>
       </c>
-      <c r="M15" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="44">
         <v>0.0</v>
       </c>
-      <c r="P15" s="12">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>23</v>
+      <c r="P15" s="46">
+        <v>3.6</v>
+      </c>
+      <c r="Q15" s="47" t="s">
+        <v>33</v>
       </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -2265,96 +2452,103 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" ht="39.75" customHeight="1">
-      <c r="A16" s="18" t="s">
+    <row r="16" ht="31.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B16" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>132</v>
+      <c r="F16" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="21">
-        <v>2021.0</v>
-      </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="23"/>
+        <v>122</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="48"/>
       <c r="L16" s="21">
         <v>1.0</v>
       </c>
       <c r="M16" s="21">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N16" s="21">
         <v>1.0</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="P16" s="24"/>
+      <c r="O16" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" ref="P16:P17" si="3">K16*0.2 + L16*0.4 + M16*0.1 + N16*0.1 + O16*0.2</f>
+        <v>0.8</v>
+      </c>
       <c r="Q16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25"/>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-    </row>
-    <row r="17" ht="31.5" customHeight="1">
-      <c r="A17" s="18" t="s">
-        <v>135</v>
+        <v>33</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" ht="43.5" customHeight="1">
+      <c r="A17" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>137</v>
+        <v>124</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="I17" s="3">
-        <v>2024.0</v>
+        <v>2020.0</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K17" s="23"/>
+        <v>41</v>
+      </c>
+      <c r="K17" s="21">
+        <v>2.0</v>
+      </c>
       <c r="L17" s="3">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="M17" s="3">
         <v>3.0</v>
@@ -2362,187 +2556,190 @@
       <c r="N17" s="3">
         <v>1.0</v>
       </c>
-      <c r="O17" s="22"/>
-      <c r="P17" s="24"/>
+      <c r="O17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P17" s="12">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
       <c r="Q17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-    </row>
-    <row r="18" ht="27.0" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>142</v>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+    </row>
+    <row r="18" ht="39.75" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>123</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18" s="3">
+        <v>134</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="21">
+        <v>2021.0</v>
+      </c>
+      <c r="J18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="21">
         <v>1.0</v>
       </c>
-      <c r="M18" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="M18" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="N18" s="21">
         <v>1.0</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="P18" s="12">
-        <f>K18*0.2 + L18*0.4 + M18*0.1 + N18*0.1 + 9*0.2</f>
-        <v>2.9</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P18" s="24"/>
       <c r="Q18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-    </row>
-    <row r="19" ht="30.75" customHeight="1">
-      <c r="A19" s="3" t="s">
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+    </row>
+    <row r="19" ht="31.5" customHeight="1">
+      <c r="A19" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="G19" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2024.0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="23"/>
+      <c r="L19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>3.0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O19" s="22"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+    </row>
+    <row r="20" ht="27.0" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C19" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P19" s="12">
-        <f>K19*0.2 + L19*0.4 + M19*0.1 + N19*0.1 + 1*0.2</f>
-        <v>0.6</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-    </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>49</v>
-      </c>
       <c r="I20" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>113</v>
+      <c r="K20" s="53" t="s">
+        <v>151</v>
       </c>
       <c r="L20" s="3">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
       <c r="M20" s="3">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="N20" s="3">
         <v>1.0</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="P20" s="12">
-        <f>K20*0.2 + L20*0.4 + M20*0.1 + N20*0.1 + 2*0.2</f>
-        <v>6.4</v>
+        <f>K20*0.2 + L20*0.4 + M20*0.1 + N20*0.1 + 9*0.2</f>
+        <v>2.9</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -2554,39 +2751,43 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" ht="21.0" customHeight="1">
+    <row r="21" ht="30.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>165</v>
+        <v>153</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>154</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
+      <c r="J21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="31"/>
-      <c r="O21" s="3">
-        <v>0.0</v>
+      <c r="O21" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="P21" s="12">
-        <f t="shared" ref="P21:P22" si="4">K21*0.2 + L21*0.4 + M21*0.1 + N21*0.1 + O21*0.2</f>
-        <v>0</v>
+        <f>K21*0.2 + L21*0.4 + M21*0.1 + N21*0.1 + 1*0.2</f>
+        <v>0.6</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>33</v>
@@ -2601,40 +2802,42 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" ht="26.25" customHeight="1">
+    <row r="22" ht="24.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>176</v>
+        <v>49</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K22" s="35"/>
+        <v>41</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="L22" s="3">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
       <c r="M22" s="3">
         <v>3.0</v>
@@ -2642,12 +2845,12 @@
       <c r="N22" s="3">
         <v>1.0</v>
       </c>
-      <c r="O22" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="P22" s="36">
-        <f t="shared" si="4"/>
-        <v>0.8</v>
+      <c r="O22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P22" s="12">
+        <f>K22*0.2 + L22*0.4 + M22*0.1 + N22*0.1 + 2*0.2</f>
+        <v>6.4</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>33</v>
@@ -2662,49 +2865,39 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" ht="19.5" customHeight="1">
+    <row r="23" ht="21.0" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>180</v>
+        <v>168</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>169</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I23" s="3">
-        <v>2016.0</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="P23" s="36">
-        <f>K23*0.2 + L23*0.4 + M23*0.1 + N23*0.1 + 1*0.2</f>
-        <v>0.8</v>
+        <v>172</v>
+      </c>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P23" s="12">
+        <f t="shared" ref="P23:P24" si="4">K23*0.2 + L23*0.4 + M23*0.1 + N23*0.1 + O23*0.2</f>
+        <v>0</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>33</v>
@@ -2719,43 +2912,53 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" ht="25.5" customHeight="1">
+    <row r="24" ht="26.25" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
+        <v>178</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="J24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K24" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="L24" s="31"/>
+        <v>181</v>
+      </c>
+      <c r="K24" s="48"/>
+      <c r="L24" s="3">
+        <v>1.0</v>
+      </c>
       <c r="M24" s="3">
         <v>3.0</v>
       </c>
-      <c r="N24" s="31"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="36">
-        <f t="shared" ref="P24:P26" si="5">K24*0.2 + L24*0.4 + M24*0.1 + N24*0.1 + O24*0.2</f>
-        <v>0.9</v>
+      <c r="N24" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="O24" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="P24" s="42">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>33</v>
@@ -2770,41 +2973,51 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" ht="27.0" customHeight="1">
-      <c r="A25" s="21" t="s">
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="A25" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="21">
+      <c r="F25" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" s="3">
         <v>2016.0</v>
       </c>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="21" t="s">
+      <c r="J25" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" s="42">
+        <f>K25*0.2 + L25*0.4 + M25*0.1 + N25*0.1 + 1*0.2</f>
+        <v>0.8</v>
+      </c>
+      <c r="Q25" s="3" t="s">
         <v>33</v>
       </c>
       <c r="R25" s="3"/>
@@ -2817,53 +3030,43 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" ht="24.75" customHeight="1">
+    <row r="26" ht="25.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>197</v>
+        <v>191</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>192</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="I26" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="J26" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="K26" s="35"/>
-      <c r="L26" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="M26" s="21">
+        <v>195</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="31"/>
+      <c r="M26" s="3">
         <v>3.0</v>
       </c>
-      <c r="N26" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="P26" s="36">
-        <f t="shared" si="5"/>
-        <v>0.8</v>
+      <c r="N26" s="31"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="42">
+        <f t="shared" ref="P26:P28" si="5">K26*0.2 + L26*0.4 + M26*0.1 + N26*0.1 + O26*0.2</f>
+        <v>0.9</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>33</v>
@@ -2878,173 +3081,225 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" ht="22.5" customHeight="1">
-      <c r="A27" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="19" t="s">
+    <row r="27" ht="27.0" customHeight="1">
+      <c r="A27" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I27" s="21">
+        <v>2016.0</v>
+      </c>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F28" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="G27" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="H27" s="41" t="s">
+      <c r="G28" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H28" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I28" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="48"/>
+      <c r="L28" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="M28" s="21">
+        <v>3.0</v>
+      </c>
+      <c r="N28" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="P28" s="42">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+    </row>
+    <row r="29" ht="22.5" customHeight="1">
+      <c r="A29" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" s="56">
         <v>2024.0</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="J29" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="K27" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="L27" s="41">
+      <c r="K29" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="L29" s="56">
         <v>3.0</v>
       </c>
-      <c r="M27" s="41">
+      <c r="M29" s="56">
         <v>3.0</v>
       </c>
-      <c r="N27" s="41">
+      <c r="N29" s="56">
         <v>1.0</v>
       </c>
-      <c r="O27" s="34"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-    </row>
-    <row r="28" ht="25.5" customHeight="1">
-      <c r="A28" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F28" s="41" t="s">
+      <c r="O29" s="34"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+    </row>
+    <row r="30" ht="25.5" customHeight="1">
+      <c r="A30" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="G28" s="41" t="s">
+      <c r="C30" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" s="56" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H30" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I30" s="56">
         <v>2022.0</v>
       </c>
-      <c r="J28" s="41" t="s">
+      <c r="J30" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="K28" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="L28" s="41">
+      <c r="K30" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="L30" s="56">
         <v>2.0</v>
       </c>
-      <c r="M28" s="41">
+      <c r="M30" s="56">
         <v>3.0</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N30" s="56">
         <v>1.0</v>
       </c>
-      <c r="O28" s="34"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="25"/>
-    </row>
-    <row r="29" ht="87.75" customHeight="1">
-      <c r="A29" s="3"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-    </row>
-    <row r="30" ht="87.75" customHeight="1">
-      <c r="A30" s="3"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
     </row>
     <row r="31" ht="87.75" customHeight="1">
       <c r="A31" s="3"/>
@@ -30122,40 +30377,96 @@
       <c r="Y997" s="3"/>
       <c r="Z997" s="3"/>
     </row>
+    <row r="998" ht="87.75" customHeight="1">
+      <c r="A998" s="3"/>
+      <c r="B998" s="19"/>
+      <c r="C998" s="19"/>
+      <c r="D998" s="19"/>
+      <c r="E998" s="3"/>
+      <c r="F998" s="3"/>
+      <c r="G998" s="3"/>
+      <c r="H998" s="3"/>
+      <c r="I998" s="3"/>
+      <c r="J998" s="3"/>
+      <c r="K998" s="3"/>
+      <c r="L998" s="3"/>
+      <c r="M998" s="3"/>
+      <c r="N998" s="3"/>
+      <c r="O998" s="3"/>
+      <c r="P998" s="3"/>
+      <c r="Q998" s="3"/>
+      <c r="R998" s="3"/>
+      <c r="S998" s="3"/>
+      <c r="T998" s="3"/>
+      <c r="U998" s="3"/>
+      <c r="V998" s="3"/>
+      <c r="W998" s="3"/>
+      <c r="X998" s="3"/>
+      <c r="Y998" s="3"/>
+      <c r="Z998" s="3"/>
+    </row>
+    <row r="999" ht="87.75" customHeight="1">
+      <c r="A999" s="3"/>
+      <c r="B999" s="19"/>
+      <c r="C999" s="19"/>
+      <c r="D999" s="19"/>
+      <c r="E999" s="3"/>
+      <c r="F999" s="3"/>
+      <c r="G999" s="3"/>
+      <c r="H999" s="3"/>
+      <c r="I999" s="3"/>
+      <c r="J999" s="3"/>
+      <c r="K999" s="3"/>
+      <c r="L999" s="3"/>
+      <c r="M999" s="3"/>
+      <c r="N999" s="3"/>
+      <c r="O999" s="3"/>
+      <c r="P999" s="3"/>
+      <c r="Q999" s="3"/>
+      <c r="R999" s="3"/>
+      <c r="S999" s="3"/>
+      <c r="T999" s="3"/>
+      <c r="U999" s="3"/>
+      <c r="V999" s="3"/>
+      <c r="W999" s="3"/>
+      <c r="X999" s="3"/>
+      <c r="Y999" s="3"/>
+      <c r="Z999" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="$A$1:$Q$1"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N5 N17 N27:N28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N5 N19 N29:N30">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J4 J6:J7 J9:J15 J18:J26 J29:J997">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J1:J4 J6:J7 J9:J17 J20:J28 J31:J999">
       <formula1>topic!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N1:N4 N6:N10 N12:N16 N20:N26 N29:N997">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="N1:N4 N6:N10 N13:N18 N22:N28 N31:N999">
       <formula1>'category of mention'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5 H16:H17 H27">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5 H18:H19 H29">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A4 H1:H4 H6:H12 H14:H15 H18:H26 H28:H997">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A4 H1:H4 H6:H13 H16:H17 H20:H28 H30:H999">
       <formula1>'type of EIGE output'!$A$1:$A$13</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K5 K17 K28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K5 K19 K30">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M5 M17 M27:M28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M5 M19 M29:M30">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14:H15">
       <formula1>'type of EIGE output'!$A$1:$A$14</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M1:M4 M6:M10 M12:M16 M20:M26 M29:M997">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="M1:M4 M6:M10 M13:M18 M22:M28 M31:M999">
       <formula1>'location of the citation'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5 J8 J16:J17 J27:J28">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J5 J8 J18:J19 J29:J30">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K1:K4 K6 K8 K10:K13 K15:K16 K18:K27 K29:K997">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K1:K4 K6 K8 K10:K15 K17:K18 K20:K29 K31:K999">
       <formula1>'impact factor'!$A$1:$A$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -30166,16 +30477,19 @@
     <hyperlink r:id="rId4" ref="C4"/>
     <hyperlink r:id="rId5" ref="C6"/>
     <hyperlink r:id="rId6" ref="D7"/>
-    <hyperlink r:id="rId7" ref="C13"/>
-    <hyperlink r:id="rId8" ref="D14"/>
-    <hyperlink r:id="rId9" ref="C17"/>
-    <hyperlink r:id="rId10" ref="C19"/>
-    <hyperlink r:id="rId11" ref="C26"/>
+    <hyperlink r:id="rId7" ref="C11"/>
+    <hyperlink r:id="rId8" ref="C12"/>
+    <hyperlink r:id="rId9" ref="C14"/>
+    <hyperlink r:id="rId10" ref="C15"/>
+    <hyperlink r:id="rId11" ref="D16"/>
+    <hyperlink r:id="rId12" ref="C19"/>
+    <hyperlink r:id="rId13" ref="C21"/>
+    <hyperlink r:id="rId14" ref="C28"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -30193,72 +30507,72 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="58" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>185</v>
+      <c r="A2" s="58" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="43" t="s">
-        <v>211</v>
+      <c r="A3" s="58" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="58" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="58" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="58" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="43" t="s">
-        <v>212</v>
+      <c r="A7" s="58" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="58" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="43" t="s">
-        <v>213</v>
+      <c r="A9" s="58" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="43" t="s">
-        <v>214</v>
+      <c r="A10" s="58" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="43" t="s">
-        <v>215</v>
+      <c r="A11" s="58" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="43" t="s">
-        <v>176</v>
+      <c r="A12" s="58" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="58" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="58" t="s">
         <v>112</v>
       </c>
     </row>
@@ -31276,105 +31590,105 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>217</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="D1" s="44" t="s">
+      <c r="A1" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="B1" s="59" t="s">
         <v>220</v>
       </c>
+      <c r="C1" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>224</v>
+      <c r="C2" s="58" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="58" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="E3" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="58" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" s="43" t="s">
-        <v>224</v>
-      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="58" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="58" t="s">
         <v>230</v>
       </c>
-      <c r="C5" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="43" t="s">
-        <v>231</v>
+      <c r="D5" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="E6" s="43" t="s">
+      <c r="A6" s="58" t="s">
         <v>235</v>
+      </c>
+      <c r="B6" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="58" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1"/>
@@ -31385,8 +31699,8 @@
     <row r="12" ht="15.75" customHeight="1"/>
     <row r="13" ht="15.75" customHeight="1"/>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="43" t="s">
-        <v>236</v>
+      <c r="A14" s="58" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1"/>
@@ -31400,7 +31714,7 @@
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="45"/>
+      <c r="C25" s="60"/>
     </row>
     <row r="26" ht="15.75" customHeight="1"/>
     <row r="27" ht="15.75" customHeight="1"/>
@@ -32400,27 +32714,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="46" t="s">
-        <v>177</v>
+      <c r="A1" s="61" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="61" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="61" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="61" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="61" t="s">
         <v>22</v>
       </c>
     </row>
@@ -33441,53 +33755,53 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="47" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="D1" s="43" t="s">
+      <c r="A1" s="62" t="s">
         <v>240</v>
       </c>
+      <c r="B1" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>243</v>
+      <c r="A2" s="62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>246</v>
+      <c r="A3" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="48">
+      <c r="A4" s="63">
         <v>0.0</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>247</v>
+      <c r="B4" s="58" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1"/>
@@ -34508,27 +34822,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="43">
+      <c r="A1" s="58">
         <v>3.0</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>248</v>
+      <c r="B1" s="58" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="43">
+      <c r="A2" s="58">
         <v>2.0</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>249</v>
+      <c r="B2" s="58" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="43">
+      <c r="A3" s="58">
         <v>1.0</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>250</v>
+      <c r="B3" s="58" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -35550,27 +35864,27 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="43">
+      <c r="A1" s="58">
         <v>1.0</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>251</v>
+      <c r="B1" s="58" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="43">
+      <c r="A2" s="58">
         <v>0.0</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>252</v>
+      <c r="B2" s="58" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>254</v>
+      <c r="A3" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="58" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1"/>
@@ -36593,50 +36907,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="49" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>256</v>
+      <c r="A1" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" s="43">
+      <c r="A2" s="58" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="58">
         <v>0.4</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="B3" s="43">
+      <c r="A3" s="58" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="58">
         <v>0.2</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="B4" s="43">
+      <c r="A4" s="58" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" s="58">
         <v>0.2</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="43">
+      <c r="A5" s="58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5" s="58">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" s="43">
+      <c r="A6" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="58">
         <v>0.1</v>
       </c>
     </row>
